--- a/LR3/table_1_69.xlsx
+++ b/LR3/table_1_69.xlsx
@@ -1,15 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7877FC-E8B2-4C4F-B43B-5294044B1002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A53836C-E74D-4387-95E3-894AD7CCC02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{FEAF61DF-F1DF-4E3C-824E-2501F7FA06A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,31 +38,52 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
+    <t>Фамилия квартиросъемщика</t>
+  </si>
+  <si>
+    <t>Площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Куропаткин 1</t>
+  </si>
+  <si>
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
-    <t>Тариф</t>
-  </si>
-  <si>
-    <t>Просрочка</t>
-  </si>
-  <si>
-    <t>Площадь, кв.м.</t>
-  </si>
-  <si>
-    <t>Куропаткин 1</t>
-  </si>
-  <si>
-    <t>Дата оплаты, день</t>
-  </si>
-  <si>
-    <t>Срок оплаты, день</t>
-  </si>
-  <si>
-    <t>Пени за день</t>
+    <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Дата оплаты, дней</t>
+  </si>
+  <si>
+    <t>Срок оплаты, дней</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Общая сумма графы “Итого”, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Максимальная сумма к оплате, руб.</t>
+  </si>
+  <si>
+    <t>Пени за день, руб.</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м.</t>
   </si>
   <si>
     <t>Аллаяров</t>
@@ -164,47 +189,51 @@
   </si>
   <si>
     <t>Федько</t>
-  </si>
-  <si>
-    <t>Средняя площадь, кв.м.</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки, дней</t>
-  </si>
-  <si>
-    <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Общая сумма графы “Итого”, руб.</t>
-  </si>
-  <si>
-    <t>Сумма, руб.</t>
-  </si>
-  <si>
-    <t>Штраф, руб.</t>
-  </si>
-  <si>
-    <t>Итого, руб.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -224,28 +253,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Денежный" xfId="1" builtinId="4"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -262,9 +291,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -278,7 +307,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -290,7 +319,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -302,12 +331,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -337,12 +366,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -372,9 +418,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -523,80 +586,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E29423-797B-40C9-918A-BA7B982D3016}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="26.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="25.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" style="3" customWidth="1"/>
-    <col min="12" max="15" width="26.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2">
+        <f>70</f>
         <v>70</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <f>$A$1*1.1</f>
         <v>75.900000000000006</v>
       </c>
@@ -618,29 +693,28 @@
         <v>10</v>
       </c>
       <c r="J3" s="2">
-        <f>H3*I3</f>
+        <f>I3*H3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <f>J3+E3</f>
         <v>5313</v>
       </c>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:D38" si="0">$A$1*1.1</f>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
         <v>75.900000000000006</v>
       </c>
       <c r="E4" s="2">
@@ -648,6 +722,7 @@
         <v>5275.05</v>
       </c>
       <c r="F4" s="4">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="4">
@@ -661,27 +736,27 @@
         <v>10</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
+        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <f t="shared" ref="K4:K38" si="4">J4+E4</f>
         <v>5275.05</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f>A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>75.900000000000006</v>
       </c>
@@ -690,6 +765,7 @@
         <v>5237.1000000000004</v>
       </c>
       <c r="F5" s="4">
+        <f t="shared" ref="F5:F38" si="6">$F$3</f>
         <v>44813</v>
       </c>
       <c r="G5" s="4">
@@ -706,24 +782,24 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <f t="shared" si="4"/>
         <v>5237.1000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f t="shared" ref="A6:A7" si="6">A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>75.900000000000006</v>
       </c>
@@ -732,6 +808,7 @@
         <v>5199.1500000000005</v>
       </c>
       <c r="F6" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G6" s="4">
@@ -748,24 +825,24 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <f t="shared" si="4"/>
         <v>5199.1500000000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>75.900000000000006</v>
       </c>
@@ -774,6 +851,7 @@
         <v>5161.2000000000007</v>
       </c>
       <c r="F7" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G7" s="4">
@@ -790,24 +868,24 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <f t="shared" si="4"/>
         <v>5161.2000000000007</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <f>A7+1</f>
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>75.900000000000006</v>
       </c>
@@ -816,6 +894,7 @@
         <v>5123.25</v>
       </c>
       <c r="F8" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G8" s="4">
@@ -832,25 +911,25 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <f t="shared" si="4"/>
         <v>5123.25</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <f t="shared" ref="A9:A37" si="7">A8+1</f>
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
+      <c r="D9" s="2">
+        <f>$A$1*1.1</f>
         <v>75.900000000000006</v>
       </c>
       <c r="E9" s="2">
@@ -858,6 +937,7 @@
         <v>5085.3</v>
       </c>
       <c r="F9" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G9" s="4">
@@ -874,25 +954,24 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <f t="shared" si="4"/>
         <v>5085.3</v>
       </c>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <f t="shared" si="0"/>
         <v>75.900000000000006</v>
       </c>
@@ -901,6 +980,7 @@
         <v>5047.3500000000004</v>
       </c>
       <c r="F10" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G10" s="4">
@@ -917,24 +997,24 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <f t="shared" si="4"/>
         <v>5047.3500000000004</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <f t="shared" si="0"/>
         <v>75.900000000000006</v>
       </c>
@@ -943,6 +1023,7 @@
         <v>5009.4000000000005</v>
       </c>
       <c r="F11" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G11" s="4">
@@ -959,24 +1040,24 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <f t="shared" si="4"/>
         <v>5009.4000000000005</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <f t="shared" si="0"/>
         <v>75.900000000000006</v>
       </c>
@@ -985,13 +1066,14 @@
         <v>4971.4500000000007</v>
       </c>
       <c r="F12" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G12" s="4">
         <v>44814</v>
       </c>
       <c r="H12" s="2">
-        <f>IF(G12&lt;=F12,0,G12-F12)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I12" s="2">
@@ -1001,24 +1083,24 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <f t="shared" si="4"/>
         <v>4981.4500000000007</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <f t="shared" si="0"/>
         <v>75.900000000000006</v>
       </c>
@@ -1027,6 +1109,7 @@
         <v>4933.5</v>
       </c>
       <c r="F13" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G13" s="4">
@@ -1043,24 +1126,24 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <f t="shared" si="4"/>
         <v>4953.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <f t="shared" si="0"/>
         <v>75.900000000000006</v>
       </c>
@@ -1069,6 +1152,7 @@
         <v>4895.55</v>
       </c>
       <c r="F14" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G14" s="4">
@@ -1085,24 +1169,24 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <f t="shared" si="4"/>
         <v>4925.55</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <f t="shared" si="0"/>
         <v>75.900000000000006</v>
       </c>
@@ -1111,6 +1195,7 @@
         <v>4857.6000000000004</v>
       </c>
       <c r="F15" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G15" s="4">
@@ -1127,24 +1212,24 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <f t="shared" si="4"/>
         <v>4897.6000000000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <f t="shared" si="0"/>
         <v>75.900000000000006</v>
       </c>
@@ -1153,6 +1238,7 @@
         <v>4819.6500000000005</v>
       </c>
       <c r="F16" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G16" s="4">
@@ -1169,24 +1255,24 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <f t="shared" si="4"/>
         <v>4869.6500000000005</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2">
-        <f>C16-0.5</f>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <f t="shared" si="0"/>
         <v>75.900000000000006</v>
       </c>
@@ -1195,6 +1281,7 @@
         <v>4781.7000000000007</v>
       </c>
       <c r="F17" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G17" s="4">
@@ -1211,24 +1298,24 @@
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <f t="shared" si="4"/>
         <v>4841.7000000000007</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <f t="shared" si="0"/>
         <v>75.900000000000006</v>
       </c>
@@ -1237,6 +1324,7 @@
         <v>4743.75</v>
       </c>
       <c r="F18" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G18" s="4">
@@ -1253,24 +1341,24 @@
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <f t="shared" si="4"/>
         <v>4813.75</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <f t="shared" si="0"/>
         <v>75.900000000000006</v>
       </c>
@@ -1279,6 +1367,7 @@
         <v>4705.8</v>
       </c>
       <c r="F19" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G19" s="4">
@@ -1295,24 +1384,24 @@
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="2">
         <f t="shared" si="4"/>
         <v>4785.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <f t="shared" si="0"/>
         <v>75.900000000000006</v>
       </c>
@@ -1321,6 +1410,7 @@
         <v>4667.8500000000004</v>
       </c>
       <c r="F20" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G20" s="4">
@@ -1337,24 +1427,24 @@
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <f t="shared" si="4"/>
         <v>4757.8500000000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <f t="shared" si="0"/>
         <v>75.900000000000006</v>
       </c>
@@ -1363,6 +1453,7 @@
         <v>4629.9000000000005</v>
       </c>
       <c r="F21" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G21" s="4">
@@ -1379,24 +1470,24 @@
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <f t="shared" si="4"/>
         <v>4729.9000000000005</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <f t="shared" si="0"/>
         <v>75.900000000000006</v>
       </c>
@@ -1405,6 +1496,7 @@
         <v>4591.9500000000007</v>
       </c>
       <c r="F22" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G22" s="4">
@@ -1421,24 +1513,24 @@
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <f t="shared" si="4"/>
         <v>4701.9500000000007</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <f t="shared" si="0"/>
         <v>75.900000000000006</v>
       </c>
@@ -1447,6 +1539,7 @@
         <v>4554</v>
       </c>
       <c r="F23" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G23" s="4">
@@ -1463,24 +1556,24 @@
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <f t="shared" si="4"/>
         <v>4674</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <f t="shared" si="0"/>
         <v>75.900000000000006</v>
       </c>
@@ -1489,6 +1582,7 @@
         <v>4516.05</v>
       </c>
       <c r="F24" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G24" s="4">
@@ -1505,24 +1599,24 @@
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="2">
         <f t="shared" si="4"/>
         <v>4646.05</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <f t="shared" si="0"/>
         <v>75.900000000000006</v>
       </c>
@@ -1531,6 +1625,7 @@
         <v>4478.1000000000004</v>
       </c>
       <c r="F25" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G25" s="4">
@@ -1547,24 +1642,24 @@
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="2">
         <f t="shared" si="4"/>
         <v>4618.1000000000004</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <f t="shared" si="0"/>
         <v>75.900000000000006</v>
       </c>
@@ -1573,6 +1668,7 @@
         <v>4440.1500000000005</v>
       </c>
       <c r="F26" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G26" s="4">
@@ -1589,24 +1685,24 @@
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="2">
         <f t="shared" si="4"/>
         <v>4590.1500000000005</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <f t="shared" si="0"/>
         <v>75.900000000000006</v>
       </c>
@@ -1615,6 +1711,7 @@
         <v>4402.2000000000007</v>
       </c>
       <c r="F27" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G27" s="4">
@@ -1631,24 +1728,24 @@
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="2">
         <f t="shared" si="4"/>
         <v>4562.2000000000007</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <f t="shared" si="0"/>
         <v>75.900000000000006</v>
       </c>
@@ -1657,6 +1754,7 @@
         <v>4364.25</v>
       </c>
       <c r="F28" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G28" s="4">
@@ -1673,24 +1771,24 @@
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="2">
         <f t="shared" si="4"/>
         <v>4534.25</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <f t="shared" si="0"/>
         <v>75.900000000000006</v>
       </c>
@@ -1699,6 +1797,7 @@
         <v>4326.3</v>
       </c>
       <c r="F29" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G29" s="4">
@@ -1715,24 +1814,24 @@
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="2">
         <f t="shared" si="4"/>
         <v>4506.3</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <f t="shared" si="0"/>
         <v>75.900000000000006</v>
       </c>
@@ -1741,6 +1840,7 @@
         <v>4288.3500000000004</v>
       </c>
       <c r="F30" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G30" s="4">
@@ -1757,24 +1857,24 @@
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="2">
         <f t="shared" si="4"/>
         <v>4478.3500000000004</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <f>A30+1</f>
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <f t="shared" si="0"/>
         <v>75.900000000000006</v>
       </c>
@@ -1783,6 +1883,7 @@
         <v>4250.4000000000005</v>
       </c>
       <c r="F31" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G31" s="4">
@@ -1799,24 +1900,24 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="2">
         <f t="shared" si="4"/>
         <v>4450.4000000000005</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <f t="shared" si="0"/>
         <v>75.900000000000006</v>
       </c>
@@ -1825,6 +1926,7 @@
         <v>4212.4500000000007</v>
       </c>
       <c r="F32" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G32" s="4">
@@ -1841,24 +1943,24 @@
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="2">
         <f t="shared" si="4"/>
         <v>4422.4500000000007</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <f t="shared" si="0"/>
         <v>75.900000000000006</v>
       </c>
@@ -1867,6 +1969,7 @@
         <v>4174.5</v>
       </c>
       <c r="F33" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G33" s="4">
@@ -1883,24 +1986,24 @@
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="2">
         <f t="shared" si="4"/>
         <v>4394.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <f t="shared" si="0"/>
         <v>75.900000000000006</v>
       </c>
@@ -1909,6 +2012,7 @@
         <v>4136.55</v>
       </c>
       <c r="F34" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G34" s="4">
@@ -1925,32 +2029,33 @@
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="2">
         <f t="shared" si="4"/>
         <v>4366.55</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="D35" s="1">
-        <f>$A$1*1.1/2</f>
+      <c r="D35" s="2">
+        <f>($A$1*1.1)/2</f>
         <v>37.950000000000003</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="1"/>
+        <f>C35*D35</f>
         <v>2049.3000000000002</v>
       </c>
       <c r="F35" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G35" s="4">
@@ -1967,25 +2072,25 @@
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="2">
         <f t="shared" si="4"/>
         <v>2289.3000000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="1">
-        <f>$A$1*1.1/2</f>
+      <c r="D36" s="2">
+        <f t="shared" ref="D36:D37" si="7">($A$1*1.1)/2</f>
         <v>37.950000000000003</v>
       </c>
       <c r="E36" s="2">
@@ -1993,6 +2098,7 @@
         <v>2030.325</v>
       </c>
       <c r="F36" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G36" s="4">
@@ -2009,25 +2115,25 @@
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="2">
         <f t="shared" si="4"/>
         <v>2280.3249999999998</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="D37" s="2">
         <f t="shared" si="7"/>
-        <v>35</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="2">
-        <f t="shared" si="5"/>
-        <v>53</v>
-      </c>
-      <c r="D37" s="1">
-        <f>$A$1*1.1/2</f>
         <v>37.950000000000003</v>
       </c>
       <c r="E37" s="2">
@@ -2035,6 +2141,7 @@
         <v>2011.3500000000001</v>
       </c>
       <c r="F37" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G37" s="4">
@@ -2051,32 +2158,33 @@
         <f t="shared" si="3"/>
         <v>260</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="2">
         <f t="shared" si="4"/>
         <v>2271.3500000000004</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <f>A37+1</f>
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="1">
-        <f>$A$1*1.1/2</f>
+      <c r="D38" s="2">
+        <f>($A$1*1.1)/2</f>
         <v>37.950000000000003</v>
       </c>
       <c r="E38" s="2">
-        <f>C38*D38</f>
+        <f t="shared" si="1"/>
         <v>1992.3750000000002</v>
       </c>
       <c r="F38" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G38" s="4">
@@ -2093,61 +2201,105 @@
         <f t="shared" si="3"/>
         <v>270</v>
       </c>
-      <c r="K38" s="3">
-        <f>J38+E38</f>
+      <c r="K38" s="2">
+        <f t="shared" si="4"/>
         <v>2262.375</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C40" s="5">
-        <f>SUM(K3:K38)</f>
-        <v>163056.15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <f>ROUNDUP(SUM(K3:K38),)</f>
+        <v>163057</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="3">
+        <v>13</v>
+      </c>
+      <c r="C43" s="2">
         <f>MAX(K3:K38)</f>
         <v>5313</v>
       </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8071D5-4AA2-4F53-A742-9033B27F0512}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LR3/table_1_69.xlsx
+++ b/LR3/table_1_69.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A53836C-E74D-4387-95E3-894AD7CCC02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD84D08-969B-41C6-B30E-4268D534B779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{FEAF61DF-F1DF-4E3C-824E-2501F7FA06A4}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>Площадь, кв.м.</t>
   </si>
   <si>
-    <t>Куропаткин 1</t>
-  </si>
-  <si>
     <t>№ квартиры</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
     <t>Табаков</t>
   </si>
   <si>
-    <t xml:space="preserve">Филимонов </t>
-  </si>
-  <si>
     <t>Хакимова</t>
   </si>
   <si>
@@ -173,15 +167,9 @@
     <t>Черёмухин</t>
   </si>
   <si>
-    <t>Шайхутдинов</t>
-  </si>
-  <si>
     <t>Якубов</t>
   </si>
   <si>
-    <t xml:space="preserve">Алимжанов </t>
-  </si>
-  <si>
     <t>Аллаярова</t>
   </si>
   <si>
@@ -189,6 +177,18 @@
   </si>
   <si>
     <t>Федько</t>
+  </si>
+  <si>
+    <t>Торощина</t>
+  </si>
+  <si>
+    <t>Филимонов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шайхутдинов </t>
+  </si>
+  <si>
+    <t>Алимжанов</t>
   </si>
 </sst>
 </file>
@@ -257,7 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -271,6 +271,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -587,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E29423-797B-40C9-918A-BA7B982D3016}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,8 +607,8 @@
     <col min="7" max="7" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -626,7 +629,7 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -635,28 +638,28 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="L2" s="3"/>
     </row>
@@ -665,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <f>70</f>
@@ -707,7 +710,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <f>C3-0.5</f>
@@ -726,6 +729,7 @@
         <v>44813</v>
       </c>
       <c r="G4" s="4">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="2">
@@ -733,6 +737,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J4" s="2">
@@ -750,10 +755,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
+        <f>C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="2">
@@ -765,10 +770,11 @@
         <v>5237.1000000000004</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ref="F5:F38" si="6">$F$3</f>
+        <f t="shared" ref="F5:F38" si="5">$F$3</f>
         <v>44813</v>
       </c>
       <c r="G5" s="4">
+        <f t="shared" ref="G5:G38" si="6">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="2">
@@ -776,6 +782,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
+        <f t="shared" ref="I5:I38" si="7">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="2">
@@ -793,10 +800,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="5"/>
+        <f>C5-0.5</f>
         <v>68.5</v>
       </c>
       <c r="D6" s="2">
@@ -808,10 +815,11 @@
         <v>5199.1500000000005</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G6" s="4">
+        <f t="shared" si="6"/>
         <v>44808</v>
       </c>
       <c r="H6" s="2">
@@ -819,6 +827,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J6" s="2">
@@ -836,10 +845,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="C7:C38" si="8">C6-0.5</f>
         <v>68</v>
       </c>
       <c r="D7" s="2">
@@ -851,10 +860,11 @@
         <v>5161.2000000000007</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G7" s="4">
+        <f t="shared" si="6"/>
         <v>44809</v>
       </c>
       <c r="H7" s="2">
@@ -862,6 +872,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J7" s="2">
@@ -879,10 +890,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="2">
@@ -894,10 +905,11 @@
         <v>5123.25</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G8" s="4">
+        <f t="shared" si="6"/>
         <v>44810</v>
       </c>
       <c r="H8" s="2">
@@ -905,6 +917,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J8" s="2">
@@ -922,10 +935,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>67</v>
       </c>
       <c r="D9" s="2">
@@ -937,10 +950,11 @@
         <v>5085.3</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G9" s="4">
+        <f t="shared" si="6"/>
         <v>44811</v>
       </c>
       <c r="H9" s="2">
@@ -948,6 +962,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J9" s="2">
@@ -965,10 +980,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="2">
@@ -980,10 +995,11 @@
         <v>5047.3500000000004</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G10" s="4">
+        <f t="shared" si="6"/>
         <v>44812</v>
       </c>
       <c r="H10" s="2">
@@ -991,6 +1007,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J10" s="2">
@@ -1008,10 +1025,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
       <c r="D11" s="2">
@@ -1023,10 +1040,11 @@
         <v>5009.4000000000005</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G11" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="H11" s="2">
@@ -1034,6 +1052,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J11" s="2">
@@ -1051,10 +1070,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="2">
@@ -1066,10 +1085,11 @@
         <v>4971.4500000000007</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G12" s="4">
+        <f t="shared" si="6"/>
         <v>44814</v>
       </c>
       <c r="H12" s="2">
@@ -1077,6 +1097,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J12" s="2">
@@ -1094,10 +1115,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>65</v>
       </c>
       <c r="D13" s="2">
@@ -1109,10 +1130,11 @@
         <v>4933.5</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G13" s="4">
+        <f t="shared" si="6"/>
         <v>44815</v>
       </c>
       <c r="H13" s="2">
@@ -1120,6 +1142,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J13" s="2">
@@ -1137,10 +1160,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="2">
@@ -1152,10 +1175,11 @@
         <v>4895.55</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G14" s="4">
+        <f t="shared" si="6"/>
         <v>44816</v>
       </c>
       <c r="H14" s="2">
@@ -1163,6 +1187,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J14" s="2">
@@ -1180,10 +1205,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="D15" s="2">
@@ -1195,10 +1220,11 @@
         <v>4857.6000000000004</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G15" s="4">
+        <f t="shared" si="6"/>
         <v>44817</v>
       </c>
       <c r="H15" s="2">
@@ -1206,6 +1232,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J15" s="2">
@@ -1223,10 +1250,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="2">
@@ -1238,10 +1265,11 @@
         <v>4819.6500000000005</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G16" s="4">
+        <f t="shared" si="6"/>
         <v>44818</v>
       </c>
       <c r="H16" s="2">
@@ -1249,6 +1277,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J16" s="2">
@@ -1266,10 +1295,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>63</v>
       </c>
       <c r="D17" s="2">
@@ -1281,10 +1310,11 @@
         <v>4781.7000000000007</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G17" s="4">
+        <f t="shared" si="6"/>
         <v>44819</v>
       </c>
       <c r="H17" s="2">
@@ -1292,6 +1322,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J17" s="2">
@@ -1309,10 +1340,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="2">
@@ -1324,10 +1355,11 @@
         <v>4743.75</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G18" s="4">
+        <f t="shared" si="6"/>
         <v>44820</v>
       </c>
       <c r="H18" s="2">
@@ -1335,6 +1367,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J18" s="2">
@@ -1352,10 +1385,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>62</v>
       </c>
       <c r="D19" s="2">
@@ -1367,10 +1400,11 @@
         <v>4705.8</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G19" s="4">
+        <f t="shared" si="6"/>
         <v>44821</v>
       </c>
       <c r="H19" s="2">
@@ -1378,6 +1412,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J19" s="2">
@@ -1395,10 +1430,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="2">
@@ -1410,10 +1445,11 @@
         <v>4667.8500000000004</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G20" s="4">
+        <f t="shared" si="6"/>
         <v>44822</v>
       </c>
       <c r="H20" s="2">
@@ -1421,6 +1457,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J20" s="2">
@@ -1438,10 +1475,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>61</v>
       </c>
       <c r="D21" s="2">
@@ -1453,10 +1490,11 @@
         <v>4629.9000000000005</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G21" s="4">
+        <f t="shared" si="6"/>
         <v>44823</v>
       </c>
       <c r="H21" s="2">
@@ -1464,6 +1502,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J21" s="2">
@@ -1481,10 +1520,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="2">
@@ -1496,10 +1535,11 @@
         <v>4591.9500000000007</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G22" s="4">
+        <f t="shared" si="6"/>
         <v>44824</v>
       </c>
       <c r="H22" s="2">
@@ -1507,6 +1547,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J22" s="2">
@@ -1524,10 +1565,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="D23" s="2">
@@ -1539,10 +1580,11 @@
         <v>4554</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G23" s="4">
+        <f t="shared" si="6"/>
         <v>44825</v>
       </c>
       <c r="H23" s="2">
@@ -1550,6 +1592,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J23" s="2">
@@ -1567,10 +1610,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="2">
@@ -1582,10 +1625,11 @@
         <v>4516.05</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G24" s="4">
+        <f t="shared" si="6"/>
         <v>44826</v>
       </c>
       <c r="H24" s="2">
@@ -1593,6 +1637,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J24" s="2">
@@ -1610,10 +1655,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
       <c r="D25" s="2">
@@ -1625,10 +1670,11 @@
         <v>4478.1000000000004</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G25" s="4">
+        <f t="shared" si="6"/>
         <v>44827</v>
       </c>
       <c r="H25" s="2">
@@ -1636,6 +1682,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J25" s="2">
@@ -1653,10 +1700,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="2">
@@ -1668,10 +1715,11 @@
         <v>4440.1500000000005</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G26" s="4">
+        <f t="shared" si="6"/>
         <v>44828</v>
       </c>
       <c r="H26" s="2">
@@ -1679,6 +1727,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J26" s="2">
@@ -1696,10 +1745,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>58</v>
       </c>
       <c r="D27" s="2">
@@ -1711,10 +1760,11 @@
         <v>4402.2000000000007</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G27" s="4">
+        <f t="shared" si="6"/>
         <v>44829</v>
       </c>
       <c r="H27" s="2">
@@ -1722,6 +1772,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J27" s="2">
@@ -1739,10 +1790,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="2">
@@ -1754,10 +1805,11 @@
         <v>4364.25</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G28" s="4">
+        <f t="shared" si="6"/>
         <v>44830</v>
       </c>
       <c r="H28" s="2">
@@ -1765,6 +1817,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J28" s="2">
@@ -1782,10 +1835,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>57</v>
       </c>
       <c r="D29" s="2">
@@ -1797,10 +1850,11 @@
         <v>4326.3</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G29" s="4">
+        <f t="shared" si="6"/>
         <v>44831</v>
       </c>
       <c r="H29" s="2">
@@ -1808,6 +1862,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J29" s="2">
@@ -1825,10 +1880,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="2">
@@ -1840,10 +1895,11 @@
         <v>4288.3500000000004</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G30" s="4">
+        <f t="shared" si="6"/>
         <v>44832</v>
       </c>
       <c r="H30" s="2">
@@ -1851,6 +1907,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J30" s="2">
@@ -1868,10 +1925,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
       <c r="D31" s="2">
@@ -1883,10 +1940,11 @@
         <v>4250.4000000000005</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G31" s="4">
+        <f t="shared" si="6"/>
         <v>44833</v>
       </c>
       <c r="H31" s="2">
@@ -1894,6 +1952,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J31" s="2">
@@ -1911,10 +1970,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="2">
@@ -1926,10 +1985,11 @@
         <v>4212.4500000000007</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G32" s="4">
+        <f t="shared" si="6"/>
         <v>44834</v>
       </c>
       <c r="H32" s="2">
@@ -1937,6 +1997,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J32" s="2">
@@ -1954,10 +2015,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>55</v>
       </c>
       <c r="D33" s="2">
@@ -1969,10 +2030,11 @@
         <v>4174.5</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G33" s="4">
+        <f t="shared" si="6"/>
         <v>44835</v>
       </c>
       <c r="H33" s="2">
@@ -1980,6 +2042,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J33" s="2">
@@ -1997,10 +2060,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="2">
@@ -2012,10 +2075,11 @@
         <v>4136.55</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G34" s="4">
+        <f t="shared" si="6"/>
         <v>44836</v>
       </c>
       <c r="H34" s="2">
@@ -2023,6 +2087,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J34" s="2">
@@ -2040,10 +2105,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="D35" s="2">
@@ -2055,10 +2120,11 @@
         <v>2049.3000000000002</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G35" s="4">
+        <f t="shared" si="6"/>
         <v>44837</v>
       </c>
       <c r="H35" s="2">
@@ -2066,6 +2132,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J35" s="2">
@@ -2083,14 +2150,14 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ref="D36:D37" si="7">($A$1*1.1)/2</f>
+        <f t="shared" ref="D36:D37" si="9">($A$1*1.1)/2</f>
         <v>37.950000000000003</v>
       </c>
       <c r="E36" s="2">
@@ -2098,10 +2165,11 @@
         <v>2030.325</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G36" s="4">
+        <f t="shared" si="6"/>
         <v>44838</v>
       </c>
       <c r="H36" s="2">
@@ -2109,6 +2177,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J36" s="2">
@@ -2126,14 +2195,14 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>53</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>37.950000000000003</v>
       </c>
       <c r="E37" s="2">
@@ -2141,10 +2210,11 @@
         <v>2011.3500000000001</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G37" s="4">
+        <f t="shared" si="6"/>
         <v>44839</v>
       </c>
       <c r="H37" s="2">
@@ -2152,6 +2222,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J37" s="2">
@@ -2169,10 +2240,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
@@ -2184,10 +2255,11 @@
         <v>1992.3750000000002</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G38" s="4">
+        <f t="shared" si="6"/>
         <v>44840</v>
       </c>
       <c r="H38" s="2">
@@ -2195,6 +2267,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="2">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J38" s="2">
@@ -2224,7 +2297,7 @@
     <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40" s="5">
         <f>ROUNDUP(SUM(K3:K38),)</f>
@@ -2243,7 +2316,7 @@
     <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2262,7 +2335,7 @@
     <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2281,7 +2354,7 @@
     <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(K3:K38)</f>
@@ -2297,6 +2370,9 @@
       <c r="K43" s="2"/>
       <c r="L43" s="3"/>
     </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F44" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LR3/table_1_69.xlsx
+++ b/LR3/table_1_69.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD84D08-969B-41C6-B30E-4268D534B779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3080EE-78D2-4F34-924D-5D294B48EFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{FEAF61DF-F1DF-4E3C-824E-2501F7FA06A4}"/>
   </bookViews>
@@ -65,18 +65,12 @@
     <t>Сумма, руб.</t>
   </si>
   <si>
-    <t>Общая сумма графы “Итого”, руб.</t>
-  </si>
-  <si>
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
     <t>Пени за день, руб.</t>
   </si>
   <si>
@@ -189,6 +183,12 @@
   </si>
   <si>
     <t>Алимжанов</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E29423-797B-40C9-918A-BA7B982D3016}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -653,7 +653,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>4</v>
@@ -668,14 +668,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2">
         <f>70</f>
         <v>70</v>
       </c>
       <c r="D3" s="2">
-        <f>$A$1*1.1</f>
+        <f>A1*1.1</f>
         <v>75.900000000000006</v>
       </c>
       <c r="E3" s="2">
@@ -707,21 +707,22 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
+        <f>D3</f>
         <v>75.900000000000006</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>5275.05</v>
       </c>
       <c r="F4" s="4">
@@ -733,7 +734,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="2">
@@ -741,1378 +742,1409 @@
         <v>10</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:K38" si="4">J4+E4</f>
+        <f t="shared" ref="K4:K38" si="3">J4+E4</f>
         <v>5275.05</v>
       </c>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <f>C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D34" si="5">D4</f>
         <v>75.900000000000006</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5237.1000000000004</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ref="F5:F38" si="5">$F$3</f>
+        <f t="shared" ref="F5:F38" si="6">$F$3</f>
         <v>44813</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ref="G5:G38" si="6">G4+1</f>
+        <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" ref="I5:I38" si="7">$I$3</f>
+        <f t="shared" ref="I5:I38" si="8">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5237.1000000000004</v>
       </c>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
         <f>C5-0.5</f>
         <v>68.5</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>75.900000000000006</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5199.1500000000005</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5199.1500000000005</v>
       </c>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" ref="C7:C38" si="8">C6-0.5</f>
+        <f t="shared" ref="C7:C38" si="9">C6-0.5</f>
         <v>68</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>75.900000000000006</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5161.2000000000007</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5161.2000000000007</v>
       </c>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>75.900000000000006</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5123.25</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5123.25</v>
       </c>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>67</v>
       </c>
       <c r="D9" s="2">
-        <f>$A$1*1.1</f>
+        <f t="shared" si="5"/>
         <v>75.900000000000006</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5085.3</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5085.3</v>
       </c>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>75.900000000000006</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5047.3500000000004</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5047.3500000000004</v>
       </c>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>66</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>75.900000000000006</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5009.4000000000005</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5009.4000000000005</v>
       </c>
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>75.900000000000006</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4971.4500000000007</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4981.4500000000007</v>
       </c>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>75.900000000000006</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4933.5</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4953.5</v>
       </c>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>75.900000000000006</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4895.55</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4925.55</v>
       </c>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>75.900000000000006</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4857.6000000000004</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4897.6000000000004</v>
       </c>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>75.900000000000006</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4819.6500000000005</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4869.6500000000005</v>
       </c>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>63</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>75.900000000000006</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4781.7000000000007</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4841.7000000000007</v>
       </c>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>75.900000000000006</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4743.75</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4813.75</v>
       </c>
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>62</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>75.900000000000006</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4705.8</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4785.8</v>
       </c>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>75.900000000000006</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4667.8500000000004</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4757.8500000000004</v>
       </c>
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>61</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>75.900000000000006</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4629.9000000000005</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4729.9000000000005</v>
       </c>
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>75.900000000000006</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4591.9500000000007</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4701.9500000000007</v>
       </c>
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>75.900000000000006</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4554</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4674</v>
       </c>
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>75.900000000000006</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4516.05</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4646.05</v>
       </c>
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>59</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>75.900000000000006</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4478.1000000000004</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4618.1000000000004</v>
       </c>
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>75.900000000000006</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4440.1500000000005</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4590.1500000000005</v>
       </c>
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>58</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>75.900000000000006</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4402.2000000000007</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4562.2000000000007</v>
       </c>
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>75.900000000000006</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4364.25</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4534.25</v>
       </c>
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>57</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>75.900000000000006</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4326.3</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4506.3</v>
       </c>
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>75.900000000000006</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4288.3500000000004</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4478.3500000000004</v>
       </c>
       <c r="L30" s="3"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>56</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>75.900000000000006</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4250.4000000000005</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4450.4000000000005</v>
       </c>
       <c r="L31" s="3"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>75.900000000000006</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4212.4500000000007</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4422.4500000000007</v>
       </c>
       <c r="L32" s="3"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>55</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>75.900000000000006</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4174.5</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4394.5</v>
       </c>
       <c r="L33" s="3"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>75.900000000000006</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4136.55</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4366.55</v>
       </c>
       <c r="L34" s="3"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="D35" s="2">
-        <f>($A$1*1.1)/2</f>
+        <f>D3/2</f>
         <v>37.950000000000003</v>
       </c>
       <c r="E35" s="2">
@@ -2120,162 +2152,165 @@
         <v>2049.3000000000002</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2289.3000000000002</v>
       </c>
       <c r="L35" s="3"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ref="D36:D37" si="9">($A$1*1.1)/2</f>
+        <f>D3/2</f>
         <v>37.950000000000003</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2030.325</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2280.3249999999998</v>
       </c>
       <c r="L36" s="3"/>
     </row>
     <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>53</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="9"/>
+        <f>D3/2</f>
         <v>37.950000000000003</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2011.3500000000001</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2271.3500000000004</v>
       </c>
       <c r="L37" s="3"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
-        <f>($A$1*1.1)/2</f>
+        <f>D3/2</f>
         <v>37.950000000000003</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1992.3750000000002</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2262.375</v>
       </c>
       <c r="L38" s="3"/>
@@ -2297,11 +2332,11 @@
     <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C40" s="5">
-        <f>ROUNDUP(SUM(K3:K38),)</f>
-        <v>163057</v>
+        <f>ROUNDDOWN(SUM(K3:K38),)</f>
+        <v>163056</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2316,7 +2351,7 @@
     <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2335,7 +2370,7 @@
     <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2354,7 +2389,7 @@
     <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_69.xlsx
+++ b/LR3/table_1_69.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3080EE-78D2-4F34-924D-5D294B48EFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E1CA01-C83F-4080-9BF6-C4812B96F4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{FEAF61DF-F1DF-4E3C-824E-2501F7FA06A4}"/>
   </bookViews>
@@ -65,12 +65,6 @@
     <t>Сумма, руб.</t>
   </si>
   <si>
-    <t>Средняя площадь, кв.м.</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки, дней</t>
-  </si>
-  <si>
     <t>Пени за день, руб.</t>
   </si>
   <si>
@@ -185,10 +179,16 @@
     <t>Алимжанов</t>
   </si>
   <si>
-    <t>Общая сумма, руб.</t>
-  </si>
-  <si>
-    <t>Максимальная сумма, руб.</t>
+    <t>Общая сумма</t>
+  </si>
+  <si>
+    <t>Средняя площадь</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки</t>
+  </si>
+  <si>
+    <t>Максимальная сумма</t>
   </si>
 </sst>
 </file>
@@ -593,7 +593,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -653,7 +653,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>4</v>
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2">
         <f>70</f>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
         <f>C3-0.5</f>
@@ -757,7 +757,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2">
         <f>C4-0.5</f>
@@ -803,7 +803,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
         <f>C5-0.5</f>
@@ -849,7 +849,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ref="C7:C38" si="9">C6-0.5</f>
@@ -895,7 +895,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="9"/>
@@ -941,7 +941,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="9"/>
@@ -987,7 +987,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="9"/>
@@ -1033,7 +1033,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="9"/>
@@ -1079,7 +1079,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="9"/>
@@ -1125,7 +1125,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="9"/>
@@ -1171,7 +1171,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="9"/>
@@ -1217,7 +1217,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="9"/>
@@ -1263,7 +1263,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="9"/>
@@ -1309,7 +1309,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="9"/>
@@ -1355,7 +1355,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="9"/>
@@ -1401,7 +1401,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="9"/>
@@ -1447,7 +1447,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="9"/>
@@ -1493,7 +1493,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="9"/>
@@ -1539,7 +1539,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="9"/>
@@ -1585,7 +1585,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="9"/>
@@ -1631,7 +1631,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="9"/>
@@ -1677,7 +1677,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="9"/>
@@ -1723,7 +1723,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="9"/>
@@ -1769,7 +1769,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="9"/>
@@ -1815,7 +1815,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="9"/>
@@ -1861,7 +1861,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="9"/>
@@ -1907,7 +1907,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="9"/>
@@ -1953,7 +1953,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="9"/>
@@ -1999,7 +1999,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="9"/>
@@ -2045,7 +2045,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="9"/>
@@ -2091,7 +2091,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="9"/>
@@ -2137,7 +2137,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="9"/>
@@ -2183,7 +2183,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="9"/>
@@ -2229,7 +2229,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="9"/>
@@ -2275,7 +2275,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="9"/>
@@ -2332,7 +2332,7 @@
     <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C40" s="5">
         <f>ROUNDDOWN(SUM(K3:K38),)</f>
@@ -2351,7 +2351,7 @@
     <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2370,7 +2370,7 @@
     <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>

--- a/LR3/table_1_69.xlsx
+++ b/LR3/table_1_69.xlsx
@@ -205,6 +205,24 @@
   </si>
   <si>
     <t>макс. сумма к оплате, руб.</t>
+  </si>
+  <si>
+    <t>Площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
   </si>
 </sst>
 </file>
@@ -590,14 +608,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A51507F0-9F30-4032-A344-78584389DCC6}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35" activeCellId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25" outlineLevelRow="0" defaultColWidth="9" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="18.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.0977" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
@@ -623,10 +641,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>53</v>
@@ -2162,7 +2180,7 @@
     </row>
     <row r="40">
       <c r="B40" s="6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C40" s="6">
         <f>MROUND(SUM(K3:K38),10)</f>
@@ -2171,7 +2189,7 @@
     </row>
     <row r="41">
       <c r="B41" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C41" s="6">
         <f>AVERAGE(C3:C38)</f>
@@ -2180,7 +2198,7 @@
     </row>
     <row r="42">
       <c r="B42" s="6" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C42" s="6">
         <f>MAX(H3:H38)</f>
@@ -2189,7 +2207,7 @@
     </row>
     <row r="43">
       <c r="B43" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C43" s="6">
         <f>MAX(E3:E38)</f>

--- a/LR3/table_1_69.xlsx
+++ b/LR3/table_1_69.xlsx
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
   </si>
 </sst>
 </file>
@@ -608,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A51507F0-9F30-4032-A344-78584389DCC6}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46" activeCellId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25" outlineLevelRow="0" defaultColWidth="9" outlineLevelCol="0"/>
@@ -638,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>60</v>
@@ -659,7 +662,7 @@
         <v>54</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>5</v>

--- a/LR3/table_1_69.xlsx
+++ b/LR3/table_1_69.xlsx
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
   </si>
 </sst>
 </file>
@@ -612,7 +618,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41" activeCellId="0"/>
+      <selection activeCell="H2" sqref="H2" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25" outlineLevelRow="0" defaultColWidth="9" outlineLevelCol="0"/>
@@ -665,10 +671,10 @@
         <v>4</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">

--- a/LR3/table_1_69.xlsx
+++ b/LR3/table_1_69.xlsx
@@ -618,7 +618,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2" activeCellId="0"/>
+      <selection activeCell="E42" sqref="E42" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25" outlineLevelRow="0" defaultColWidth="9" outlineLevelCol="0"/>
@@ -688,7 +688,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>69*1.1</f>
+        <f>$A$1*1.1</f>
         <v>75.9</v>
       </c>
       <c r="E3" s="1">
@@ -702,7 +702,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(G3-F3 &lt;= 0, 0, G3-F3)</f>
+        <f>IF(G3&lt;=F3, 0, G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -730,7 +730,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f>69*1.1</f>
+        <f>$A$1*1.1</f>
         <v>75.9</v>
       </c>
       <c r="E4" s="1">
@@ -744,10 +744,11 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f>IF(G4-F4 &lt;= 0, 0, G4-F4)</f>
+        <f>IF(G4&lt;=F4, 0, G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
@@ -772,7 +773,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f>69*1.1</f>
+        <f>$A$1*1.1</f>
         <v>75.9</v>
       </c>
       <c r="E5" s="1">
@@ -786,10 +787,11 @@
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f>IF(G5-F5 &lt;= 0, 0, G5-F5)</f>
+        <f>IF(G5&lt;=F5, 0, G5-F5)</f>
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -814,7 +816,7 @@
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f>69*1.1</f>
+        <f>$A$1*1.1</f>
         <v>75.9</v>
       </c>
       <c r="E6" s="1">
@@ -828,10 +830,11 @@
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f>IF(G6-F6 &lt;= 0, 0, G6-F6)</f>
+        <f>IF(G6&lt;=F6, 0, G6-F6)</f>
         <v>0</v>
       </c>
       <c r="I6" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -856,7 +859,7 @@
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f>69*1.1</f>
+        <f>$A$1*1.1</f>
         <v>75.9</v>
       </c>
       <c r="E7" s="1">
@@ -870,10 +873,11 @@
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f>IF(G7-F7 &lt;= 0, 0, G7-F7)</f>
+        <f>IF(G7&lt;=F7, 0, G7-F7)</f>
         <v>0</v>
       </c>
       <c r="I7" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -898,7 +902,7 @@
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f>69*1.1</f>
+        <f>$A$1*1.1</f>
         <v>75.9</v>
       </c>
       <c r="E8" s="1">
@@ -912,10 +916,11 @@
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f>IF(G8-F8 &lt;= 0, 0, G8-F8)</f>
+        <f>IF(G8&lt;=F8, 0, G8-F8)</f>
         <v>0</v>
       </c>
       <c r="I8" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -940,7 +945,7 @@
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f>69*1.1</f>
+        <f>$A$1*1.1</f>
         <v>75.9</v>
       </c>
       <c r="E9" s="1">
@@ -954,10 +959,11 @@
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f>IF(G9-F9 &lt;= 0, 0, G9-F9)</f>
+        <f>IF(G9&lt;=F9, 0, G9-F9)</f>
         <v>0</v>
       </c>
       <c r="I9" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -982,7 +988,7 @@
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f>69*1.1</f>
+        <f>$A$1*1.1</f>
         <v>75.9</v>
       </c>
       <c r="E10" s="1">
@@ -996,10 +1002,11 @@
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f>IF(G10-F10 &lt;= 0, 0, G10-F10)</f>
+        <f>IF(G10&lt;=F10, 0, G10-F10)</f>
         <v>0</v>
       </c>
       <c r="I10" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -1024,7 +1031,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f>69*1.1</f>
+        <f>$A$1*1.1</f>
         <v>75.9</v>
       </c>
       <c r="E11" s="1">
@@ -1038,10 +1045,11 @@
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f>IF(G11-F11 &lt;= 0, 0, G11-F11)</f>
+        <f>IF(G11&lt;=F11, 0, G11-F11)</f>
         <v>0</v>
       </c>
       <c r="I11" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -1066,7 +1074,7 @@
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f>69*1.1</f>
+        <f>$A$1*1.1</f>
         <v>75.9</v>
       </c>
       <c r="E12" s="1">
@@ -1080,10 +1088,11 @@
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f>IF(G12-F12 &lt;= 0, 0, G12-F12)</f>
+        <f>IF(G12&lt;=F12, 0, G12-F12)</f>
         <v>1</v>
       </c>
       <c r="I12" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1108,7 +1117,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f>69*1.1</f>
+        <f>$A$1*1.1</f>
         <v>75.9</v>
       </c>
       <c r="E13" s="1">
@@ -1122,10 +1131,11 @@
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f>IF(G13-F13 &lt;= 0, 0, G13-F13)</f>
+        <f>IF(G13&lt;=F13, 0, G13-F13)</f>
         <v>2</v>
       </c>
       <c r="I13" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1150,7 +1160,7 @@
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f>69*1.1</f>
+        <f>$A$1*1.1</f>
         <v>75.9</v>
       </c>
       <c r="E14" s="1">
@@ -1164,10 +1174,11 @@
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f>IF(G14-F14 &lt;= 0, 0, G14-F14)</f>
+        <f>IF(G14&lt;=F14, 0, G14-F14)</f>
         <v>3</v>
       </c>
       <c r="I14" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1192,7 +1203,7 @@
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f>69*1.1</f>
+        <f>$A$1*1.1</f>
         <v>75.9</v>
       </c>
       <c r="E15" s="1">
@@ -1206,10 +1217,11 @@
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f>IF(G15-F15 &lt;= 0, 0, G15-F15)</f>
+        <f>IF(G15&lt;=F15, 0, G15-F15)</f>
         <v>4</v>
       </c>
       <c r="I15" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1234,7 +1246,7 @@
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f>69*1.1</f>
+        <f>$A$1*1.1</f>
         <v>75.9</v>
       </c>
       <c r="E16" s="1">
@@ -1248,10 +1260,11 @@
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f>IF(G16-F16 &lt;= 0, 0, G16-F16)</f>
+        <f>IF(G16&lt;=F16, 0, G16-F16)</f>
         <v>5</v>
       </c>
       <c r="I16" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1276,7 +1289,7 @@
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f>69*1.1</f>
+        <f>$A$1*1.1</f>
         <v>75.9</v>
       </c>
       <c r="E17" s="1">
@@ -1290,10 +1303,11 @@
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f>IF(G17-F17 &lt;= 0, 0, G17-F17)</f>
+        <f>IF(G17&lt;=F17, 0, G17-F17)</f>
         <v>6</v>
       </c>
       <c r="I17" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1318,7 +1332,7 @@
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f>69*1.1</f>
+        <f>$A$1*1.1</f>
         <v>75.9</v>
       </c>
       <c r="E18" s="1">
@@ -1332,10 +1346,11 @@
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f>IF(G18-F18 &lt;= 0, 0, G18-F18)</f>
+        <f>IF(G18&lt;=F18, 0, G18-F18)</f>
         <v>7</v>
       </c>
       <c r="I18" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1360,7 +1375,7 @@
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f>69*1.1</f>
+        <f>$A$1*1.1</f>
         <v>75.9</v>
       </c>
       <c r="E19" s="1">
@@ -1374,10 +1389,11 @@
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f>IF(G19-F19 &lt;= 0, 0, G19-F19)</f>
+        <f>IF(G19&lt;=F19, 0, G19-F19)</f>
         <v>8</v>
       </c>
       <c r="I19" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1402,7 +1418,7 @@
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f>69*1.1</f>
+        <f>$A$1*1.1</f>
         <v>75.9</v>
       </c>
       <c r="E20" s="1">
@@ -1416,10 +1432,11 @@
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f>IF(G20-F20 &lt;= 0, 0, G20-F20)</f>
+        <f>IF(G20&lt;=F20, 0, G20-F20)</f>
         <v>9</v>
       </c>
       <c r="I20" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1444,7 +1461,7 @@
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f>69*1.1</f>
+        <f>$A$1*1.1</f>
         <v>75.9</v>
       </c>
       <c r="E21" s="1">
@@ -1458,10 +1475,11 @@
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f>IF(G21-F21 &lt;= 0, 0, G21-F21)</f>
+        <f>IF(G21&lt;=F21, 0, G21-F21)</f>
         <v>10</v>
       </c>
       <c r="I21" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1486,7 +1504,7 @@
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f>69*1.1</f>
+        <f>$A$1*1.1</f>
         <v>75.9</v>
       </c>
       <c r="E22" s="1">
@@ -1500,10 +1518,11 @@
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f>IF(G22-F22 &lt;= 0, 0, G22-F22)</f>
+        <f>IF(G22&lt;=F22, 0, G22-F22)</f>
         <v>11</v>
       </c>
       <c r="I22" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1528,7 +1547,7 @@
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f>69*1.1</f>
+        <f>$A$1*1.1</f>
         <v>75.9</v>
       </c>
       <c r="E23" s="1">
@@ -1542,10 +1561,11 @@
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f>IF(G23-F23 &lt;= 0, 0, G23-F23)</f>
+        <f>IF(G23&lt;=F23, 0, G23-F23)</f>
         <v>12</v>
       </c>
       <c r="I23" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1570,7 +1590,7 @@
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f>69*1.1</f>
+        <f>$A$1*1.1</f>
         <v>75.9</v>
       </c>
       <c r="E24" s="1">
@@ -1584,10 +1604,11 @@
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f>IF(G24-F24 &lt;= 0, 0, G24-F24)</f>
+        <f>IF(G24&lt;=F24, 0, G24-F24)</f>
         <v>13</v>
       </c>
       <c r="I24" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1612,7 +1633,7 @@
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f>69*1.1</f>
+        <f>$A$1*1.1</f>
         <v>75.9</v>
       </c>
       <c r="E25" s="1">
@@ -1626,10 +1647,11 @@
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f>IF(G25-F25 &lt;= 0, 0, G25-F25)</f>
+        <f>IF(G25&lt;=F25, 0, G25-F25)</f>
         <v>14</v>
       </c>
       <c r="I25" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1654,7 +1676,7 @@
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f>69*1.1</f>
+        <f>$A$1*1.1</f>
         <v>75.9</v>
       </c>
       <c r="E26" s="1">
@@ -1668,10 +1690,11 @@
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f>IF(G26-F26 &lt;= 0, 0, G26-F26)</f>
+        <f>IF(G26&lt;=F26, 0, G26-F26)</f>
         <v>15</v>
       </c>
       <c r="I26" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1696,7 +1719,7 @@
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f>69*1.1</f>
+        <f>$A$1*1.1</f>
         <v>75.9</v>
       </c>
       <c r="E27" s="1">
@@ -1710,10 +1733,11 @@
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f>IF(G27-F27 &lt;= 0, 0, G27-F27)</f>
+        <f>IF(G27&lt;=F27, 0, G27-F27)</f>
         <v>16</v>
       </c>
       <c r="I27" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1738,7 +1762,7 @@
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f>69*1.1</f>
+        <f>$A$1*1.1</f>
         <v>75.9</v>
       </c>
       <c r="E28" s="1">
@@ -1752,10 +1776,11 @@
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f>IF(G28-F28 &lt;= 0, 0, G28-F28)</f>
+        <f>IF(G28&lt;=F28, 0, G28-F28)</f>
         <v>17</v>
       </c>
       <c r="I28" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1780,7 +1805,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f>69*1.1</f>
+        <f>$A$1*1.1</f>
         <v>75.9</v>
       </c>
       <c r="E29" s="1">
@@ -1794,10 +1819,11 @@
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f>IF(G29-F29 &lt;= 0, 0, G29-F29)</f>
+        <f>IF(G29&lt;=F29, 0, G29-F29)</f>
         <v>18</v>
       </c>
       <c r="I29" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1822,7 +1848,7 @@
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f>69*1.1</f>
+        <f>$A$1*1.1</f>
         <v>75.9</v>
       </c>
       <c r="E30" s="1">
@@ -1836,10 +1862,11 @@
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f>IF(G30-F30 &lt;= 0, 0, G30-F30)</f>
+        <f>IF(G30&lt;=F30, 0, G30-F30)</f>
         <v>19</v>
       </c>
       <c r="I30" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1864,7 +1891,7 @@
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f>69*1.1</f>
+        <f>$A$1*1.1</f>
         <v>75.9</v>
       </c>
       <c r="E31" s="1">
@@ -1878,10 +1905,11 @@
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f>IF(G31-F31 &lt;= 0, 0, G31-F31)</f>
+        <f>IF(G31&lt;=F31, 0, G31-F31)</f>
         <v>20</v>
       </c>
       <c r="I31" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1906,7 +1934,7 @@
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f>69*1.1</f>
+        <f>$A$1*1.1</f>
         <v>75.9</v>
       </c>
       <c r="E32" s="1">
@@ -1920,10 +1948,11 @@
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f>IF(G32-F32 &lt;= 0, 0, G32-F32)</f>
+        <f>IF(G32&lt;=F32, 0, G32-F32)</f>
         <v>21</v>
       </c>
       <c r="I32" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1948,7 +1977,7 @@
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f>69*1.1</f>
+        <f>$A$1*1.1</f>
         <v>75.9</v>
       </c>
       <c r="E33" s="1">
@@ -1962,10 +1991,11 @@
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f>IF(G33-F33 &lt;= 0, 0, G33-F33)</f>
+        <f>IF(G33&lt;=F33, 0, G33-F33)</f>
         <v>22</v>
       </c>
       <c r="I33" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -1990,7 +2020,7 @@
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f>69*1.1</f>
+        <f>$A$1*1.1</f>
         <v>75.9</v>
       </c>
       <c r="E34" s="1">
@@ -2004,10 +2034,11 @@
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f>IF(G34-F34 &lt;= 0, 0, G34-F34)</f>
+        <f>IF(G34&lt;=F34, 0, G34-F34)</f>
         <v>23</v>
       </c>
       <c r="I34" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -2032,7 +2063,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>69*1.1/2</f>
+        <f>($A$1*1.1)/2</f>
         <v>37.95</v>
       </c>
       <c r="E35" s="1">
@@ -2046,10 +2077,11 @@
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f>IF(G35-F35 &lt;= 0, 0, G35-F35)</f>
+        <f>IF(G35&lt;=F35, 0, G35-F35)</f>
         <v>24</v>
       </c>
       <c r="I35" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -2074,7 +2106,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f>69*1.1/2</f>
+        <f>($A$1*1.1)/2</f>
         <v>37.95</v>
       </c>
       <c r="E36" s="1">
@@ -2088,10 +2120,11 @@
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f>IF(G36-F36 &lt;= 0, 0, G36-F36)</f>
+        <f>IF(G36&lt;=F36, 0, G36-F36)</f>
         <v>25</v>
       </c>
       <c r="I36" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2116,7 +2149,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f>69*1.1/2</f>
+        <f>($A$1*1.1)/2</f>
         <v>37.95</v>
       </c>
       <c r="E37" s="1">
@@ -2130,10 +2163,11 @@
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f>IF(G37-F37 &lt;= 0, 0, G37-F37)</f>
+        <f>IF(G37&lt;=F37, 0, G37-F37)</f>
         <v>26</v>
       </c>
       <c r="I37" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2158,7 +2192,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f>69*1.1/2</f>
+        <f>($A$1*1.1)/2</f>
         <v>37.95</v>
       </c>
       <c r="E38" s="1">
@@ -2172,10 +2206,11 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f>IF(G38-F38 &lt;= 0, 0, G38-F38)</f>
+        <f>IF(G38&lt;=F38, 0, G38-F38)</f>
         <v>27</v>
       </c>
       <c r="I38" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J38" s="1">
@@ -2192,8 +2227,8 @@
         <v>62</v>
       </c>
       <c r="C40" s="6">
-        <f>MROUND(SUM(K3:K38),10)</f>
-        <v>163060</v>
+        <f>FLOOR(SUM(K3:K38),1)</f>
+        <v>163056</v>
       </c>
     </row>
     <row r="41">

--- a/LR3/table_1_69.xlsx
+++ b/LR3/table_1_69.xlsx
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
   </si>
 </sst>
 </file>
@@ -618,7 +621,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42" activeCellId="0"/>
+      <selection activeCell="I2" sqref="I2" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25" outlineLevelRow="0" defaultColWidth="9" outlineLevelCol="0"/>
@@ -668,7 +671,7 @@
         <v>54</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>67</v>

--- a/LR3/table_1_69.xlsx
+++ b/LR3/table_1_69.xlsx
@@ -283,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -303,6 +303,18 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
       <alignment vertical="center" horizontal="center"/>
       <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,7 +633,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2" activeCellId="0"/>
+      <selection activeCell="F41" sqref="F41" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25" outlineLevelRow="0" defaultColWidth="9" outlineLevelCol="0"/>
@@ -684,7 +696,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1">
@@ -725,7 +737,7 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1">
@@ -741,9 +753,11 @@
         <v>5275.05</v>
       </c>
       <c r="F4" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="5">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
@@ -768,7 +782,7 @@
         <f>A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1">
@@ -784,9 +798,11 @@
         <v>5237.1</v>
       </c>
       <c r="F5" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G5" s="5">
+        <f>G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -811,7 +827,7 @@
         <f>A5+1</f>
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1">
@@ -827,9 +843,11 @@
         <v>5199.150000000001</v>
       </c>
       <c r="F6" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G6" s="5">
+        <f>G5+1</f>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -854,7 +872,7 @@
         <f>A6+1</f>
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1">
@@ -870,9 +888,11 @@
         <v>5161.200000000001</v>
       </c>
       <c r="F7" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G7" s="5">
+        <f>G6+1</f>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -897,7 +917,7 @@
         <f>A7+1</f>
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1">
@@ -913,9 +933,11 @@
         <v>5123.25</v>
       </c>
       <c r="F8" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G8" s="5">
+        <f>G7+1</f>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -940,7 +962,7 @@
         <f>A8+1</f>
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1">
@@ -956,9 +978,11 @@
         <v>5085.3</v>
       </c>
       <c r="F9" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G9" s="5">
+        <f>G8+1</f>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -983,7 +1007,7 @@
         <f>A9+1</f>
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1">
@@ -999,9 +1023,11 @@
         <v>5047.35</v>
       </c>
       <c r="F10" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G10" s="5">
+        <f>G9+1</f>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -1026,7 +1052,7 @@
         <f>A10+1</f>
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="1">
@@ -1042,9 +1068,11 @@
         <v>5009.400000000001</v>
       </c>
       <c r="F11" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G11" s="5">
+        <f>G10+1</f>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -1069,7 +1097,7 @@
         <f>A11+1</f>
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="1">
@@ -1085,9 +1113,11 @@
         <v>4971.450000000001</v>
       </c>
       <c r="F12" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G12" s="5">
+        <f>G11+1</f>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -1112,7 +1142,7 @@
         <f>A12+1</f>
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="1">
@@ -1128,9 +1158,11 @@
         <v>4933.5</v>
       </c>
       <c r="F13" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G13" s="5">
+        <f>G12+1</f>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1155,7 +1187,7 @@
         <f>A13+1</f>
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1">
@@ -1171,9 +1203,11 @@
         <v>4895.55</v>
       </c>
       <c r="F14" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G14" s="5">
+        <f>G13+1</f>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1198,7 +1232,7 @@
         <f>A14+1</f>
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="1">
@@ -1214,9 +1248,11 @@
         <v>4857.6</v>
       </c>
       <c r="F15" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G15" s="5">
+        <f>G14+1</f>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1241,7 +1277,7 @@
         <f>A15+1</f>
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="1">
@@ -1257,9 +1293,11 @@
         <v>4819.650000000001</v>
       </c>
       <c r="F16" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G16" s="5">
+        <f>G15+1</f>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1284,7 +1322,7 @@
         <f>A16+1</f>
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="1">
@@ -1300,9 +1338,11 @@
         <v>4781.700000000001</v>
       </c>
       <c r="F17" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G17" s="5">
+        <f>G16+1</f>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1327,7 +1367,7 @@
         <f>A17+1</f>
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="1">
@@ -1343,9 +1383,11 @@
         <v>4743.75</v>
       </c>
       <c r="F18" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G18" s="5">
+        <f>G17+1</f>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1370,7 +1412,7 @@
         <f>A18+1</f>
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="1">
@@ -1386,9 +1428,11 @@
         <v>4705.8</v>
       </c>
       <c r="F19" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G19" s="5">
+        <f>G18+1</f>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1413,7 +1457,7 @@
         <f>A19+1</f>
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="1">
@@ -1429,9 +1473,11 @@
         <v>4667.85</v>
       </c>
       <c r="F20" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G20" s="5">
+        <f>G19+1</f>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1456,7 +1502,7 @@
         <f>A20+1</f>
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="1">
@@ -1472,9 +1518,11 @@
         <v>4629.900000000001</v>
       </c>
       <c r="F21" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G21" s="5">
+        <f>G20+1</f>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1499,7 +1547,7 @@
         <f>A21+1</f>
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="1">
@@ -1515,9 +1563,11 @@
         <v>4591.950000000001</v>
       </c>
       <c r="F22" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G22" s="5">
+        <f>G21+1</f>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1542,7 +1592,7 @@
         <f>A22+1</f>
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="1">
@@ -1558,9 +1608,11 @@
         <v>4554</v>
       </c>
       <c r="F23" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G23" s="5">
+        <f>G22+1</f>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1585,7 +1637,7 @@
         <f>A23+1</f>
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="1">
@@ -1601,9 +1653,11 @@
         <v>4516.05</v>
       </c>
       <c r="F24" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G24" s="5">
+        <f>G23+1</f>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1628,7 +1682,7 @@
         <f>A24+1</f>
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="1">
@@ -1644,9 +1698,11 @@
         <v>4478.1</v>
       </c>
       <c r="F25" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G25" s="5">
+        <f>G24+1</f>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1671,7 +1727,7 @@
         <f>A25+1</f>
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="1">
@@ -1687,9 +1743,11 @@
         <v>4440.150000000001</v>
       </c>
       <c r="F26" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G26" s="5">
+        <f>G25+1</f>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1714,7 +1772,7 @@
         <f>A26+1</f>
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="1">
@@ -1730,9 +1788,11 @@
         <v>4402.200000000001</v>
       </c>
       <c r="F27" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G27" s="5">
+        <f>G26+1</f>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1757,7 +1817,7 @@
         <f>A27+1</f>
         <v>26</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="1">
@@ -1773,9 +1833,11 @@
         <v>4364.25</v>
       </c>
       <c r="F28" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G28" s="5">
+        <f>G27+1</f>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1800,7 +1862,7 @@
         <f>A28+1</f>
         <v>27</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="1">
@@ -1816,9 +1878,11 @@
         <v>4326.3</v>
       </c>
       <c r="F29" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G29" s="5">
+        <f>G28+1</f>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1843,7 +1907,7 @@
         <f>A29+1</f>
         <v>28</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="1">
@@ -1859,9 +1923,11 @@
         <v>4288.35</v>
       </c>
       <c r="F30" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G30" s="5">
+        <f>G29+1</f>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1886,7 +1952,7 @@
         <f>A30+1</f>
         <v>29</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C31" s="1">
@@ -1902,9 +1968,11 @@
         <v>4250.400000000001</v>
       </c>
       <c r="F31" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G31" s="5">
+        <f>G30+1</f>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1929,7 +1997,7 @@
         <f>A31+1</f>
         <v>30</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="1">
@@ -1945,9 +2013,11 @@
         <v>4212.450000000001</v>
       </c>
       <c r="F32" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G32" s="5">
+        <f>G31+1</f>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1972,7 +2042,7 @@
         <f>A32+1</f>
         <v>31</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="1">
@@ -1988,9 +2058,11 @@
         <v>4174.5</v>
       </c>
       <c r="F33" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G33" s="5">
+        <f>G32+1</f>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -2015,7 +2087,7 @@
         <f>A33+1</f>
         <v>32</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="1">
@@ -2031,9 +2103,11 @@
         <v>4136.55</v>
       </c>
       <c r="F34" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G34" s="5">
+        <f>G33+1</f>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -2058,7 +2132,7 @@
         <f>A34+1</f>
         <v>33</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="1">
@@ -2074,9 +2148,11 @@
         <v>2049.3</v>
       </c>
       <c r="F35" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G35" s="5">
+        <f>G34+1</f>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -2101,7 +2177,7 @@
         <f>A35+1</f>
         <v>34</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="1">
@@ -2117,9 +2193,11 @@
         <v>2030.325</v>
       </c>
       <c r="F36" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G36" s="5">
+        <f>G35+1</f>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -2144,7 +2222,7 @@
         <f>A36+1</f>
         <v>35</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="1">
@@ -2160,9 +2238,11 @@
         <v>2011.3500000000001</v>
       </c>
       <c r="F37" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G37" s="5">
+        <f>G36+1</f>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -2187,7 +2267,7 @@
         <f>A37+1</f>
         <v>36</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="1">
@@ -2203,9 +2283,11 @@
         <v>1992.3750000000002</v>
       </c>
       <c r="F38" s="5">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G38" s="5">
+        <f>G37+1</f>
         <v>44840</v>
       </c>
       <c r="H38" s="1">

--- a/LR3/table_1_69.xlsx
+++ b/LR3/table_1_69.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Студент\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\111\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4D67CFC-63D8-41CF-8DD4-0DBF09031B55}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{243D3798-6FC5-467A-B172-5B628ED3FC73}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="171027"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -30,7 +36,115 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
+    <t>Алишеров</t>
+  </si>
+  <si>
+    <t>Аллаярова</t>
+  </si>
+  <si>
+    <t>Антипов</t>
+  </si>
+  <si>
+    <t>Арсланов</t>
+  </si>
+  <si>
+    <t>Гусаков</t>
+  </si>
+  <si>
+    <t>Дедюхин</t>
+  </si>
+  <si>
+    <t>Иванова</t>
+  </si>
+  <si>
+    <t>Камалов</t>
+  </si>
+  <si>
+    <t>Любенко</t>
+  </si>
+  <si>
+    <t>Максутов</t>
+  </si>
+  <si>
+    <t>Никифорович</t>
+  </si>
+  <si>
+    <t>Овчинников</t>
+  </si>
+  <si>
+    <t>Романова</t>
+  </si>
+  <si>
+    <t>Симоненко</t>
+  </si>
+  <si>
+    <t>Стариков</t>
+  </si>
+  <si>
+    <t>Сулейманов</t>
+  </si>
+  <si>
+    <t>Тураев</t>
+  </si>
+  <si>
+    <t>Хакимджанов</t>
+  </si>
+  <si>
+    <t>Хасанов</t>
+  </si>
+  <si>
+    <t>Чарыев</t>
+  </si>
+  <si>
+    <t>Юсупова</t>
+  </si>
+  <si>
+    <t>Куропаткин 1</t>
+  </si>
+  <si>
+    <t>Куропаткин 2</t>
+  </si>
+  <si>
+    <t>Куропаткин 3</t>
+  </si>
+  <si>
+    <t>Куропаткин 4</t>
+  </si>
+  <si>
+    <t>Куропаткин 5</t>
+  </si>
+  <si>
+    <t>Куропаткин 6</t>
+  </si>
+  <si>
+    <t>Куропаткин 7</t>
+  </si>
+  <si>
+    <t>Куропаткин 8</t>
+  </si>
+  <si>
+    <t>Куропаткин 9</t>
+  </si>
+  <si>
+    <t>Куропаткин 10</t>
+  </si>
+  <si>
+    <t>Куропаткин 11</t>
+  </si>
+  <si>
+    <t>Куропаткин 12</t>
+  </si>
+  <si>
+    <t>Куропаткин 13</t>
+  </si>
+  <si>
+    <t>Куропаткин 14</t>
+  </si>
+  <si>
+    <t>Куропаткин 15</t>
+  </si>
+  <si>
+    <t>Площадь, кв.м.</t>
   </si>
   <si>
     <t>Срок оплаты</t>
@@ -39,221 +153,52 @@
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
-    <t>Штраф</t>
-  </si>
-  <si>
-    <t>Итого</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алишеров </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аллаярова </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Антипов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гусаков </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дедюхин </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Арсланов </t>
-  </si>
-  <si>
-    <t>Иванова</t>
-  </si>
-  <si>
-    <t>Камалов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Любенко </t>
-  </si>
-  <si>
-    <t>Максутов</t>
-  </si>
-  <si>
-    <t>Никифорович</t>
-  </si>
-  <si>
-    <t>Овчинников</t>
-  </si>
-  <si>
-    <t>Романова</t>
-  </si>
-  <si>
-    <t>Симоненко</t>
-  </si>
-  <si>
-    <t>Стариков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулейманов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тураев </t>
-  </si>
-  <si>
-    <t>Хакимджанов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Хасанов </t>
-  </si>
-  <si>
-    <t>Чарыев</t>
-  </si>
-  <si>
-    <t>Юсупова</t>
-  </si>
-  <si>
-    <t>Куропаткин 1</t>
-  </si>
-  <si>
-    <t>Куропаткин 2</t>
-  </si>
-  <si>
-    <t>Куропаткин 3</t>
-  </si>
-  <si>
-    <t>Куропаткин 4</t>
-  </si>
-  <si>
-    <t>Куропаткин 5</t>
-  </si>
-  <si>
-    <t>Куропаткин 6</t>
-  </si>
-  <si>
-    <t>Куропаткин 7</t>
-  </si>
-  <si>
-    <t>Куропаткин 8</t>
-  </si>
-  <si>
-    <t>Куропаткин 9</t>
-  </si>
-  <si>
-    <t>Куропаткин 10</t>
-  </si>
-  <si>
-    <t>Куропаткин 11</t>
-  </si>
-  <si>
-    <t>Куропаткин 12</t>
-  </si>
-  <si>
-    <t>Куропаткин 13</t>
-  </si>
-  <si>
-    <t>Куропаткин 14</t>
-  </si>
-  <si>
-    <t>Куропаткин 15</t>
-  </si>
-  <si>
-    <t>общая сумма</t>
-  </si>
-  <si>
-    <t>средняя площадь</t>
-  </si>
-  <si>
-    <t>макс. срок просрочки</t>
-  </si>
-  <si>
-    <t>макс. сумма к оплате</t>
-  </si>
-  <si>
-    <t>Площадь кв.м</t>
-  </si>
-  <si>
-    <t>Сумма руб.</t>
-  </si>
-  <si>
-    <t>Просрочка дней</t>
-  </si>
-  <si>
-    <t>Тариф руб./кв.м</t>
-  </si>
-  <si>
-    <t>Площадь, кв.м</t>
-  </si>
-  <si>
-    <t>Тариф, руб./кв.м</t>
+    <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
   </si>
   <si>
     <t>Сумма, руб.</t>
   </si>
   <si>
-    <t>Просрочка, дней</t>
-  </si>
-  <si>
-    <t>Пени, за 1 день</t>
-  </si>
-  <si>
-    <t>общая сумма, руб.</t>
-  </si>
-  <si>
-    <t>средняя площадь, кв.м</t>
-  </si>
-  <si>
-    <t>макс. срок просрочки, дней</t>
-  </si>
-  <si>
-    <t>макс. сумма к оплате, руб.</t>
-  </si>
-  <si>
-    <t>Площадь, кв.м.</t>
+    <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
     <t>Тариф, руб./кв.м.</t>
-  </si>
-  <si>
-    <t>Общая сумма, руб.</t>
-  </si>
-  <si>
-    <t>Средняя площадь, кв.м.</t>
-  </si>
-  <si>
-    <t>Максимальная сумма, руб.</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки, дней</t>
-  </si>
-  <si>
-    <t>Фамилия квартиросъёмщика</t>
-  </si>
-  <si>
-    <t>Штраф, руб.</t>
-  </si>
-  <si>
-    <t>Итого, руб.</t>
-  </si>
-  <si>
-    <t>Пени за 1 день, руб.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -265,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -273,48 +218,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
-      <alignment vertical="center" horizontal="center"/>
-      <protection/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -344,44 +267,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -409,31 +332,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -461,23 +367,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -489,167 +378,190 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A51507F0-9F30-4032-A344-78584389DCC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41" activeCellId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0" topLeftCell="A19">
+      <selection activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25" outlineLevelRow="0" defaultColWidth="9" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.0977" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="10.75" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -662,42 +574,42 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>7</v>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -710,21 +622,21 @@
         <f>C3*D3</f>
         <v>5313</v>
       </c>
-      <c r="F3" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="F3" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="2">
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(G3&lt;=F3, 0, G3-F3)</f>
+        <f>IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
         <v>10</v>
       </c>
       <c r="J3" s="1">
-        <f>I3*H3</f>
+        <f>H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="1">
@@ -737,8 +649,8 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>8</v>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -752,24 +664,24 @@
         <f>C4*D4</f>
         <v>5275.05</v>
       </c>
-      <c r="F4" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="F4" s="2">
+        <f>F3</f>
+        <v>44813</v>
+      </c>
+      <c r="G4" s="2">
         <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f>IF(G4&lt;=F4, 0, G4-F4)</f>
+        <f>IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f>$I$3</f>
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f>I4*H4</f>
+        <f>H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
@@ -782,8 +694,8 @@
         <f>A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>9</v>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <f>C4-0.5</f>
@@ -797,24 +709,24 @@
         <f>C5*D5</f>
         <v>5237.1</v>
       </c>
-      <c r="F5" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="F5" s="2">
+        <f>F4</f>
+        <v>44813</v>
+      </c>
+      <c r="G5" s="2">
         <f>G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f>IF(G5&lt;=F5, 0, G5-F5)</f>
+        <f>IF(G5&lt;=F5,0,G5-F5)</f>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f>$I$3</f>
+        <f>I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f>I5*H5</f>
+        <f>H5*I5</f>
         <v>0</v>
       </c>
       <c r="K5" s="1">
@@ -827,8 +739,8 @@
         <f>A5+1</f>
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>12</v>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C6" s="1">
         <f>C5-0.5</f>
@@ -842,24 +754,24 @@
         <f>C6*D6</f>
         <v>5199.150000000001</v>
       </c>
-      <c r="F6" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="2">
+        <f>F5</f>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="2">
         <f>G5+1</f>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f>IF(G6&lt;=F6, 0, G6-F6)</f>
+        <f>IF(G6&lt;=F6,0,G6-F6)</f>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f>$I$3</f>
+        <f>I5</f>
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f>I6*H6</f>
+        <f>H6*I6</f>
         <v>0</v>
       </c>
       <c r="K6" s="1">
@@ -872,8 +784,8 @@
         <f>A6+1</f>
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>10</v>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <f>C6-0.5</f>
@@ -887,24 +799,24 @@
         <f>C7*D7</f>
         <v>5161.200000000001</v>
       </c>
-      <c r="F7" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="F7" s="2">
+        <f>F6</f>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="2">
         <f>G6+1</f>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f>IF(G7&lt;=F7, 0, G7-F7)</f>
+        <f>IF(G7&lt;=F7,0,G7-F7)</f>
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f>$I$3</f>
+        <f>I6</f>
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f>I7*H7</f>
+        <f>H7*I7</f>
         <v>0</v>
       </c>
       <c r="K7" s="1">
@@ -917,8 +829,8 @@
         <f>A7+1</f>
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>11</v>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <f>C7-0.5</f>
@@ -932,24 +844,24 @@
         <f>C8*D8</f>
         <v>5123.25</v>
       </c>
-      <c r="F8" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="F8" s="2">
+        <f>F7</f>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="2">
         <f>G7+1</f>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f>IF(G8&lt;=F8, 0, G8-F8)</f>
+        <f>IF(G8&lt;=F8,0,G8-F8)</f>
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f>$I$3</f>
+        <f>I7</f>
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f>I8*H8</f>
+        <f>H8*I8</f>
         <v>0</v>
       </c>
       <c r="K8" s="1">
@@ -962,8 +874,8 @@
         <f>A8+1</f>
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>13</v>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C9" s="1">
         <f>C8-0.5</f>
@@ -977,24 +889,24 @@
         <f>C9*D9</f>
         <v>5085.3</v>
       </c>
-      <c r="F9" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="2">
+        <f>F8</f>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="2">
         <f>G8+1</f>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f>IF(G9&lt;=F9, 0, G9-F9)</f>
+        <f>IF(G9&lt;=F9,0,G9-F9)</f>
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f>$I$3</f>
+        <f>I8</f>
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f>I9*H9</f>
+        <f>H9*I9</f>
         <v>0</v>
       </c>
       <c r="K9" s="1">
@@ -1007,8 +919,8 @@
         <f>A9+1</f>
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>14</v>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <f>C9-0.5</f>
@@ -1022,24 +934,24 @@
         <f>C10*D10</f>
         <v>5047.35</v>
       </c>
-      <c r="F10" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="F10" s="2">
+        <f>F9</f>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="2">
         <f>G9+1</f>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f>IF(G10&lt;=F10, 0, G10-F10)</f>
+        <f>IF(G10&lt;=F10,0,G10-F10)</f>
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f>$I$3</f>
+        <f>I9</f>
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f>I10*H10</f>
+        <f>H10*I10</f>
         <v>0</v>
       </c>
       <c r="K10" s="1">
@@ -1052,8 +964,8 @@
         <f>A10+1</f>
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>15</v>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <f>C10-0.5</f>
@@ -1067,24 +979,24 @@
         <f>C11*D11</f>
         <v>5009.400000000001</v>
       </c>
-      <c r="F11" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="F11" s="2">
+        <f>F10</f>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="2">
         <f>G10+1</f>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f>IF(G11&lt;=F11, 0, G11-F11)</f>
+        <f>IF(G11&lt;=F11,0,G11-F11)</f>
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f>$I$3</f>
+        <f>I10</f>
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f>I11*H11</f>
+        <f>H11*I11</f>
         <v>0</v>
       </c>
       <c r="K11" s="1">
@@ -1097,8 +1009,8 @@
         <f>A11+1</f>
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>16</v>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="1">
         <f>C11-0.5</f>
@@ -1112,24 +1024,24 @@
         <f>C12*D12</f>
         <v>4971.450000000001</v>
       </c>
-      <c r="F12" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="F12" s="2">
+        <f>F11</f>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="2">
         <f>G11+1</f>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f>IF(G12&lt;=F12, 0, G12-F12)</f>
+        <f>IF(G12&lt;=F12,0,G12-F12)</f>
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <f>$I$3</f>
+        <f>I11</f>
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f>I12*H12</f>
+        <f>H12*I12</f>
         <v>10</v>
       </c>
       <c r="K12" s="1">
@@ -1142,8 +1054,8 @@
         <f>A12+1</f>
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>17</v>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C13" s="1">
         <f>C12-0.5</f>
@@ -1157,24 +1069,24 @@
         <f>C13*D13</f>
         <v>4933.5</v>
       </c>
-      <c r="F13" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="F13" s="2">
+        <f>F12</f>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="2">
         <f>G12+1</f>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f>IF(G13&lt;=F13, 0, G13-F13)</f>
+        <f>IF(G13&lt;=F13,0,G13-F13)</f>
         <v>2</v>
       </c>
       <c r="I13" s="1">
-        <f>$I$3</f>
+        <f>I12</f>
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f>I13*H13</f>
+        <f>H13*I13</f>
         <v>20</v>
       </c>
       <c r="K13" s="1">
@@ -1187,8 +1099,8 @@
         <f>A13+1</f>
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>18</v>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C14" s="1">
         <f>C13-0.5</f>
@@ -1202,24 +1114,24 @@
         <f>C14*D14</f>
         <v>4895.55</v>
       </c>
-      <c r="F14" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="F14" s="2">
+        <f>F13</f>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="2">
         <f>G13+1</f>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f>IF(G14&lt;=F14, 0, G14-F14)</f>
+        <f>IF(G14&lt;=F14,0,G14-F14)</f>
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <f>$I$3</f>
+        <f>I13</f>
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f>I14*H14</f>
+        <f>H14*I14</f>
         <v>30</v>
       </c>
       <c r="K14" s="1">
@@ -1232,8 +1144,8 @@
         <f>A14+1</f>
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>19</v>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C15" s="1">
         <f>C14-0.5</f>
@@ -1247,24 +1159,24 @@
         <f>C15*D15</f>
         <v>4857.6</v>
       </c>
-      <c r="F15" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="F15" s="2">
+        <f>F14</f>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="2">
         <f>G14+1</f>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f>IF(G15&lt;=F15, 0, G15-F15)</f>
+        <f>IF(G15&lt;=F15,0,G15-F15)</f>
         <v>4</v>
       </c>
       <c r="I15" s="1">
-        <f>$I$3</f>
+        <f>I14</f>
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f>I15*H15</f>
+        <f>H15*I15</f>
         <v>40</v>
       </c>
       <c r="K15" s="1">
@@ -1277,8 +1189,8 @@
         <f>A15+1</f>
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>20</v>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C16" s="1">
         <f>C15-0.5</f>
@@ -1292,24 +1204,24 @@
         <f>C16*D16</f>
         <v>4819.650000000001</v>
       </c>
-      <c r="F16" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="F16" s="2">
+        <f>F15</f>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="2">
         <f>G15+1</f>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f>IF(G16&lt;=F16, 0, G16-F16)</f>
+        <f>IF(G16&lt;=F16,0,G16-F16)</f>
         <v>5</v>
       </c>
       <c r="I16" s="1">
-        <f>$I$3</f>
+        <f>I15</f>
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f>I16*H16</f>
+        <f>H16*I16</f>
         <v>50</v>
       </c>
       <c r="K16" s="1">
@@ -1322,8 +1234,8 @@
         <f>A16+1</f>
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>21</v>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C17" s="1">
         <f>C16-0.5</f>
@@ -1337,24 +1249,24 @@
         <f>C17*D17</f>
         <v>4781.700000000001</v>
       </c>
-      <c r="F17" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="F17" s="2">
+        <f>F16</f>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="2">
         <f>G16+1</f>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f>IF(G17&lt;=F17, 0, G17-F17)</f>
+        <f>IF(G17&lt;=F17,0,G17-F17)</f>
         <v>6</v>
       </c>
       <c r="I17" s="1">
-        <f>$I$3</f>
+        <f>I16</f>
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f>I17*H17</f>
+        <f>H17*I17</f>
         <v>60</v>
       </c>
       <c r="K17" s="1">
@@ -1367,8 +1279,8 @@
         <f>A17+1</f>
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>22</v>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C18" s="1">
         <f>C17-0.5</f>
@@ -1382,24 +1294,24 @@
         <f>C18*D18</f>
         <v>4743.75</v>
       </c>
-      <c r="F18" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="F18" s="2">
+        <f>F17</f>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="2">
         <f>G17+1</f>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f>IF(G18&lt;=F18, 0, G18-F18)</f>
+        <f>IF(G18&lt;=F18,0,G18-F18)</f>
         <v>7</v>
       </c>
       <c r="I18" s="1">
-        <f>$I$3</f>
+        <f>I17</f>
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f>I18*H18</f>
+        <f>H18*I18</f>
         <v>70</v>
       </c>
       <c r="K18" s="1">
@@ -1412,8 +1324,8 @@
         <f>A18+1</f>
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>23</v>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C19" s="1">
         <f>C18-0.5</f>
@@ -1427,24 +1339,24 @@
         <f>C19*D19</f>
         <v>4705.8</v>
       </c>
-      <c r="F19" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="F19" s="2">
+        <f>F18</f>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="2">
         <f>G18+1</f>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f>IF(G19&lt;=F19, 0, G19-F19)</f>
+        <f>IF(G19&lt;=F19,0,G19-F19)</f>
         <v>8</v>
       </c>
       <c r="I19" s="1">
-        <f>$I$3</f>
+        <f>I18</f>
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f>I19*H19</f>
+        <f>H19*I19</f>
         <v>80</v>
       </c>
       <c r="K19" s="1">
@@ -1457,8 +1369,8 @@
         <f>A19+1</f>
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>24</v>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C20" s="1">
         <f>C19-0.5</f>
@@ -1472,24 +1384,24 @@
         <f>C20*D20</f>
         <v>4667.85</v>
       </c>
-      <c r="F20" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="F20" s="2">
+        <f>F19</f>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="2">
         <f>G19+1</f>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f>IF(G20&lt;=F20, 0, G20-F20)</f>
+        <f>IF(G20&lt;=F20,0,G20-F20)</f>
         <v>9</v>
       </c>
       <c r="I20" s="1">
-        <f>$I$3</f>
+        <f>I19</f>
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f>I20*H20</f>
+        <f>H20*I20</f>
         <v>90</v>
       </c>
       <c r="K20" s="1">
@@ -1502,8 +1414,8 @@
         <f>A20+1</f>
         <v>19</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>25</v>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C21" s="1">
         <f>C20-0.5</f>
@@ -1517,24 +1429,24 @@
         <f>C21*D21</f>
         <v>4629.900000000001</v>
       </c>
-      <c r="F21" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="F21" s="2">
+        <f>F20</f>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="2">
         <f>G20+1</f>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f>IF(G21&lt;=F21, 0, G21-F21)</f>
+        <f>IF(G21&lt;=F21,0,G21-F21)</f>
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <f>$I$3</f>
+        <f>I20</f>
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f>I21*H21</f>
+        <f>H21*I21</f>
         <v>100</v>
       </c>
       <c r="K21" s="1">
@@ -1547,8 +1459,8 @@
         <f>A21+1</f>
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>26</v>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C22" s="1">
         <f>C21-0.5</f>
@@ -1562,24 +1474,24 @@
         <f>C22*D22</f>
         <v>4591.950000000001</v>
       </c>
-      <c r="F22" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="F22" s="2">
+        <f>F21</f>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="2">
         <f>G21+1</f>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f>IF(G22&lt;=F22, 0, G22-F22)</f>
+        <f>IF(G22&lt;=F22,0,G22-F22)</f>
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f>$I$3</f>
+        <f>I21</f>
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f>I22*H22</f>
+        <f>H22*I22</f>
         <v>110</v>
       </c>
       <c r="K22" s="1">
@@ -1592,8 +1504,8 @@
         <f>A22+1</f>
         <v>21</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>27</v>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C23" s="1">
         <f>C22-0.5</f>
@@ -1607,24 +1519,24 @@
         <f>C23*D23</f>
         <v>4554</v>
       </c>
-      <c r="F23" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="5">
+      <c r="F23" s="2">
+        <f>F22</f>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="2">
         <f>G22+1</f>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f>IF(G23&lt;=F23, 0, G23-F23)</f>
+        <f>IF(G23&lt;=F23,0,G23-F23)</f>
         <v>12</v>
       </c>
       <c r="I23" s="1">
-        <f>$I$3</f>
+        <f>I22</f>
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f>I23*H23</f>
+        <f>H23*I23</f>
         <v>120</v>
       </c>
       <c r="K23" s="1">
@@ -1637,8 +1549,8 @@
         <f>A23+1</f>
         <v>22</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>28</v>
+      <c r="B24" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C24" s="1">
         <f>C23-0.5</f>
@@ -1652,24 +1564,24 @@
         <f>C24*D24</f>
         <v>4516.05</v>
       </c>
-      <c r="F24" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="F24" s="2">
+        <f>F23</f>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="2">
         <f>G23+1</f>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f>IF(G24&lt;=F24, 0, G24-F24)</f>
+        <f>IF(G24&lt;=F24,0,G24-F24)</f>
         <v>13</v>
       </c>
       <c r="I24" s="1">
-        <f>$I$3</f>
+        <f>I23</f>
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f>I24*H24</f>
+        <f>H24*I24</f>
         <v>130</v>
       </c>
       <c r="K24" s="1">
@@ -1682,8 +1594,8 @@
         <f>A24+1</f>
         <v>23</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>29</v>
+      <c r="B25" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C25" s="1">
         <f>C24-0.5</f>
@@ -1697,24 +1609,24 @@
         <f>C25*D25</f>
         <v>4478.1</v>
       </c>
-      <c r="F25" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="5">
+      <c r="F25" s="2">
+        <f>F24</f>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="2">
         <f>G24+1</f>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f>IF(G25&lt;=F25, 0, G25-F25)</f>
+        <f>IF(G25&lt;=F25,0,G25-F25)</f>
         <v>14</v>
       </c>
       <c r="I25" s="1">
-        <f>$I$3</f>
+        <f>I24</f>
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f>I25*H25</f>
+        <f>H25*I25</f>
         <v>140</v>
       </c>
       <c r="K25" s="1">
@@ -1727,8 +1639,8 @@
         <f>A25+1</f>
         <v>24</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>30</v>
+      <c r="B26" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C26" s="1">
         <f>C25-0.5</f>
@@ -1742,24 +1654,24 @@
         <f>C26*D26</f>
         <v>4440.150000000001</v>
       </c>
-      <c r="F26" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="F26" s="2">
+        <f>F25</f>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="2">
         <f>G25+1</f>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f>IF(G26&lt;=F26, 0, G26-F26)</f>
+        <f>IF(G26&lt;=F26,0,G26-F26)</f>
         <v>15</v>
       </c>
       <c r="I26" s="1">
-        <f>$I$3</f>
+        <f>I25</f>
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f>I26*H26</f>
+        <f>H26*I26</f>
         <v>150</v>
       </c>
       <c r="K26" s="1">
@@ -1772,8 +1684,8 @@
         <f>A26+1</f>
         <v>25</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>31</v>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C27" s="1">
         <f>C26-0.5</f>
@@ -1787,24 +1699,24 @@
         <f>C27*D27</f>
         <v>4402.200000000001</v>
       </c>
-      <c r="F27" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="5">
+      <c r="F27" s="2">
+        <f>F26</f>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="2">
         <f>G26+1</f>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f>IF(G27&lt;=F27, 0, G27-F27)</f>
+        <f>IF(G27&lt;=F27,0,G27-F27)</f>
         <v>16</v>
       </c>
       <c r="I27" s="1">
-        <f>$I$3</f>
+        <f>I26</f>
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f>I27*H27</f>
+        <f>H27*I27</f>
         <v>160</v>
       </c>
       <c r="K27" s="1">
@@ -1817,8 +1729,8 @@
         <f>A27+1</f>
         <v>26</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>32</v>
+      <c r="B28" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C28" s="1">
         <f>C27-0.5</f>
@@ -1832,24 +1744,24 @@
         <f>C28*D28</f>
         <v>4364.25</v>
       </c>
-      <c r="F28" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="5">
+      <c r="F28" s="2">
+        <f>F27</f>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="2">
         <f>G27+1</f>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f>IF(G28&lt;=F28, 0, G28-F28)</f>
+        <f>IF(G28&lt;=F28,0,G28-F28)</f>
         <v>17</v>
       </c>
       <c r="I28" s="1">
-        <f>$I$3</f>
+        <f>I27</f>
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f>I28*H28</f>
+        <f>H28*I28</f>
         <v>170</v>
       </c>
       <c r="K28" s="1">
@@ -1862,8 +1774,8 @@
         <f>A28+1</f>
         <v>27</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>33</v>
+      <c r="B29" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C29" s="1">
         <f>C28-0.5</f>
@@ -1877,24 +1789,24 @@
         <f>C29*D29</f>
         <v>4326.3</v>
       </c>
-      <c r="F29" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="F29" s="2">
+        <f>F28</f>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="2">
         <f>G28+1</f>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f>IF(G29&lt;=F29, 0, G29-F29)</f>
+        <f>IF(G29&lt;=F29,0,G29-F29)</f>
         <v>18</v>
       </c>
       <c r="I29" s="1">
-        <f>$I$3</f>
+        <f>I28</f>
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f>I29*H29</f>
+        <f>H29*I29</f>
         <v>180</v>
       </c>
       <c r="K29" s="1">
@@ -1907,8 +1819,8 @@
         <f>A29+1</f>
         <v>28</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>34</v>
+      <c r="B30" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C30" s="1">
         <f>C29-0.5</f>
@@ -1922,24 +1834,24 @@
         <f>C30*D30</f>
         <v>4288.35</v>
       </c>
-      <c r="F30" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="5">
+      <c r="F30" s="2">
+        <f>F29</f>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="2">
         <f>G29+1</f>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f>IF(G30&lt;=F30, 0, G30-F30)</f>
+        <f>IF(G30&lt;=F30,0,G30-F30)</f>
         <v>19</v>
       </c>
       <c r="I30" s="1">
-        <f>$I$3</f>
+        <f>I29</f>
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f>I30*H30</f>
+        <f>H30*I30</f>
         <v>190</v>
       </c>
       <c r="K30" s="1">
@@ -1952,8 +1864,8 @@
         <f>A30+1</f>
         <v>29</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>35</v>
+      <c r="B31" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C31" s="1">
         <f>C30-0.5</f>
@@ -1967,24 +1879,24 @@
         <f>C31*D31</f>
         <v>4250.400000000001</v>
       </c>
-      <c r="F31" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="5">
+      <c r="F31" s="2">
+        <f>F30</f>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="2">
         <f>G30+1</f>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f>IF(G31&lt;=F31, 0, G31-F31)</f>
+        <f>IF(G31&lt;=F31,0,G31-F31)</f>
         <v>20</v>
       </c>
       <c r="I31" s="1">
-        <f>$I$3</f>
+        <f>I30</f>
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f>I31*H31</f>
+        <f>H31*I31</f>
         <v>200</v>
       </c>
       <c r="K31" s="1">
@@ -1997,8 +1909,8 @@
         <f>A31+1</f>
         <v>30</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>36</v>
+      <c r="B32" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C32" s="1">
         <f>C31-0.5</f>
@@ -2012,24 +1924,24 @@
         <f>C32*D32</f>
         <v>4212.450000000001</v>
       </c>
-      <c r="F32" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="5">
+      <c r="F32" s="2">
+        <f>F31</f>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="2">
         <f>G31+1</f>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f>IF(G32&lt;=F32, 0, G32-F32)</f>
+        <f>IF(G32&lt;=F32,0,G32-F32)</f>
         <v>21</v>
       </c>
       <c r="I32" s="1">
-        <f>$I$3</f>
+        <f>I31</f>
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f>I32*H32</f>
+        <f>H32*I32</f>
         <v>210</v>
       </c>
       <c r="K32" s="1">
@@ -2042,8 +1954,8 @@
         <f>A32+1</f>
         <v>31</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>37</v>
+      <c r="B33" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C33" s="1">
         <f>C32-0.5</f>
@@ -2057,24 +1969,24 @@
         <f>C33*D33</f>
         <v>4174.5</v>
       </c>
-      <c r="F33" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="5">
+      <c r="F33" s="2">
+        <f>F32</f>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="2">
         <f>G32+1</f>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f>IF(G33&lt;=F33, 0, G33-F33)</f>
+        <f>IF(G33&lt;=F33,0,G33-F33)</f>
         <v>22</v>
       </c>
       <c r="I33" s="1">
-        <f>$I$3</f>
+        <f>I32</f>
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f>I33*H33</f>
+        <f>H33*I33</f>
         <v>220</v>
       </c>
       <c r="K33" s="1">
@@ -2087,8 +1999,8 @@
         <f>A33+1</f>
         <v>32</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>38</v>
+      <c r="B34" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C34" s="1">
         <f>C33-0.5</f>
@@ -2102,24 +2014,24 @@
         <f>C34*D34</f>
         <v>4136.55</v>
       </c>
-      <c r="F34" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="5">
+      <c r="F34" s="2">
+        <f>F33</f>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="2">
         <f>G33+1</f>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f>IF(G34&lt;=F34, 0, G34-F34)</f>
+        <f>IF(G34&lt;=F34,0,G34-F34)</f>
         <v>23</v>
       </c>
       <c r="I34" s="1">
-        <f>$I$3</f>
+        <f>I33</f>
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f>I34*H34</f>
+        <f>H34*I34</f>
         <v>230</v>
       </c>
       <c r="K34" s="1">
@@ -2132,8 +2044,8 @@
         <f>A34+1</f>
         <v>33</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>39</v>
+      <c r="B35" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C35" s="1">
         <f>C34-0.5</f>
@@ -2147,24 +2059,24 @@
         <f>C35*D35</f>
         <v>2049.3</v>
       </c>
-      <c r="F35" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="5">
+      <c r="F35" s="2">
+        <f>F34</f>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="2">
         <f>G34+1</f>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f>IF(G35&lt;=F35, 0, G35-F35)</f>
+        <f>IF(G35&lt;=F35,0,G35-F35)</f>
         <v>24</v>
       </c>
       <c r="I35" s="1">
-        <f>$I$3</f>
+        <f>I34</f>
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f>I35*H35</f>
+        <f>H35*I35</f>
         <v>240</v>
       </c>
       <c r="K35" s="1">
@@ -2177,8 +2089,8 @@
         <f>A35+1</f>
         <v>34</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>40</v>
+      <c r="B36" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C36" s="1">
         <f>C35-0.5</f>
@@ -2192,24 +2104,24 @@
         <f>C36*D36</f>
         <v>2030.325</v>
       </c>
-      <c r="F36" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="5">
+      <c r="F36" s="2">
+        <f>F35</f>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="2">
         <f>G35+1</f>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f>IF(G36&lt;=F36, 0, G36-F36)</f>
+        <f>IF(G36&lt;=F36,0,G36-F36)</f>
         <v>25</v>
       </c>
       <c r="I36" s="1">
-        <f>$I$3</f>
+        <f>I35</f>
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f>I36*H36</f>
+        <f>H36*I36</f>
         <v>250</v>
       </c>
       <c r="K36" s="1">
@@ -2222,8 +2134,8 @@
         <f>A36+1</f>
         <v>35</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>41</v>
+      <c r="B37" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C37" s="1">
         <f>C36-0.5</f>
@@ -2237,24 +2149,24 @@
         <f>C37*D37</f>
         <v>2011.3500000000001</v>
       </c>
-      <c r="F37" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="5">
+      <c r="F37" s="2">
+        <f>F36</f>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="2">
         <f>G36+1</f>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f>IF(G37&lt;=F37, 0, G37-F37)</f>
+        <f>IF(G37&lt;=F37,0,G37-F37)</f>
         <v>26</v>
       </c>
       <c r="I37" s="1">
-        <f>$I$3</f>
+        <f>I36</f>
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f>I37*H37</f>
+        <f>H37*I37</f>
         <v>260</v>
       </c>
       <c r="K37" s="1">
@@ -2267,8 +2179,8 @@
         <f>A37+1</f>
         <v>36</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>42</v>
+      <c r="B38" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C38" s="1">
         <f>C37-0.5</f>
@@ -2282,24 +2194,24 @@
         <f>C38*D38</f>
         <v>1992.3750000000002</v>
       </c>
-      <c r="F38" s="5">
-        <f>$F$3</f>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="5">
+      <c r="F38" s="2">
+        <f>F37</f>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="2">
         <f>G37+1</f>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f>IF(G38&lt;=F38, 0, G38-F38)</f>
+        <f>IF(G38&lt;=F38,0,G38-F38)</f>
         <v>27</v>
       </c>
       <c r="I38" s="1">
-        <f>$I$3</f>
+        <f>I37</f>
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f>I38*H38</f>
+        <f>H38*I38</f>
         <v>270</v>
       </c>
       <c r="K38" s="1">
@@ -2308,42 +2220,67 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="6">
+      <c r="B40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="5">
         <f>FLOOR(SUM(K3:K38),1)</f>
         <v>163056</v>
       </c>
     </row>
     <row r="41">
-      <c r="B41" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="6">
+      <c r="B41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="3">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
     <row r="42">
-      <c r="B42" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="6">
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
     </row>
     <row r="43">
-      <c r="B43" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="6">
-        <f>MAX(E3:E38)</f>
+      <c r="B43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="1">
+        <f>MAX(K3:K38)</f>
         <v>5313</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>